--- a/data_excel/854.xlsx
+++ b/data_excel/854.xlsx
@@ -93,12 +93,6 @@
     <t>拿了</t>
   </si>
   <si>
-    <t>nv</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -109,6 +103,14 @@
   </si>
   <si>
     <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +140,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -147,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -170,13 +180,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -482,7 +520,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -521,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -584,7 +622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -595,20 +633,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -636,9 +674,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -647,20 +685,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
